--- a/src/results/model_metrics/00_summary.xlsx
+++ b/src/results/model_metrics/00_summary.xlsx
@@ -1,87 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\github\XBorderCap-ML\src\results\model_metrics\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BAA7C3-B59A-47F5-9C3C-5EA973FC065D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>ModelType</t>
-  </si>
-  <si>
-    <t>Dataset</t>
-  </si>
-  <si>
-    <t>Learning Rate</t>
-  </si>
-  <si>
-    <t>Weight Decay</t>
-  </si>
-  <si>
-    <t>Train Split</t>
-  </si>
-  <si>
-    <t>Batch size</t>
-  </si>
-  <si>
-    <t>Epochs</t>
-  </si>
-  <si>
-    <t>Train loss</t>
-  </si>
-  <si>
-    <t>Val loss</t>
-  </si>
-  <si>
-    <t>R2-Score</t>
-  </si>
-  <si>
-    <t>MAE</t>
-  </si>
-  <si>
-    <t>BaseModel</t>
-  </si>
-  <si>
-    <t>BASELINE_MAXBEX</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -96,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -420,94 +420,174 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ModelType</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Learning Rate</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weight Decay</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Train Split</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Batch size</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Train loss</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Val loss</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Train-R2-Score</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Val-R2-Score</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Train-MAE</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Val-MAE</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>1E-3</v>
-      </c>
-      <c r="D2">
-        <v>1E-3</v>
-      </c>
-      <c r="E2">
-        <v>0.8</v>
-      </c>
-      <c r="F2">
-        <v>512</v>
-      </c>
-      <c r="G2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BaseModel</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BL_FBMC</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F2" t="n">
+        <v>256</v>
+      </c>
+      <c r="G2" t="n">
         <v>100</v>
       </c>
-      <c r="H2">
-        <v>0.2</v>
-      </c>
-      <c r="I2">
-        <v>0.72</v>
-      </c>
-      <c r="J2">
-        <v>-1.17</v>
-      </c>
-      <c r="K2">
-        <v>1084.0400390625</v>
+      <c r="H2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="L2" t="n">
+        <v>564.1820068359375</v>
+      </c>
+      <c r="M2" t="n">
+        <v>871.85302734375</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BaseModel</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BL_FBMC_TIME</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F3" t="n">
+        <v>256</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="L3" t="n">
+        <v>562.4219970703125</v>
+      </c>
+      <c r="M3" t="n">
+        <v>903.3319702148438</v>
       </c>
     </row>
   </sheetData>

--- a/src/results/model_metrics/00_summary.xlsx
+++ b/src/results/model_metrics/00_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,55 +446,75 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Loss Criterion</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Learning Rate</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Weight Decay</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Train Split</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Val Split</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Batch size</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Epochs</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Train loss</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Train loss MIN</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Val loss</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Val loss MIN</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Train-R2-Score</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Val-R2-Score</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Train-MAE</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Val-MAE</t>
         </is>
@@ -511,38 +531,52 @@
           <t>BL_FBMC</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>0.0001</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SmoothL1Loss</t>
+        </is>
       </c>
       <c r="D2" t="n">
-        <v>0.001</v>
+        <v>0.0003</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9</v>
+        <v>0.001</v>
       </c>
       <c r="F2" t="n">
-        <v>256</v>
+        <v>0.9</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0.15</v>
       </c>
       <c r="H2" t="n">
-        <v>0.54</v>
+        <v>256</v>
       </c>
       <c r="I2" t="n">
-        <v>4.58</v>
+        <v>100</v>
       </c>
       <c r="J2" t="n">
-        <v>0.45</v>
+        <v>0.21</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.27</v>
+        <v>0.21</v>
       </c>
       <c r="L2" t="n">
-        <v>564.1820068359375</v>
+        <v>0.61</v>
       </c>
       <c r="M2" t="n">
-        <v>871.85302734375</v>
+        <v>0.61</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="P2" t="n">
+        <v>526.1929931640625</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>973.9039916992188</v>
       </c>
     </row>
     <row r="3">
@@ -556,38 +590,3301 @@
           <t>BL_FBMC_TIME</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>0.0001</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SmoothL1Loss</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>0.001</v>
+        <v>0.0003</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9</v>
+        <v>0.001</v>
       </c>
       <c r="F3" t="n">
-        <v>256</v>
+        <v>0.9</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>0.15</v>
       </c>
       <c r="H3" t="n">
+        <v>256</v>
+      </c>
+      <c r="I3" t="n">
+        <v>100</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.72</v>
+      </c>
+      <c r="P3" t="n">
+        <v>538.7550048828125</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>977.3740234375</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>BaseModel</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BL_FBMC_NO_WEATHER</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SmoothL1Loss</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H4" t="n">
+        <v>256</v>
+      </c>
+      <c r="I4" t="n">
+        <v>100</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="P4" t="n">
+        <v>514.447021484375</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>944.905029296875</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>BaseModel</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BL_FBMC</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SmoothL1Loss</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H5" t="n">
+        <v>256</v>
+      </c>
+      <c r="I5" t="n">
+        <v>100</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="P5" t="n">
+        <v>526.1929931640625</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>973.9039916992188</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BaseModel</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BL_FBMC_TIME</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SmoothL1Loss</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H6" t="n">
+        <v>256</v>
+      </c>
+      <c r="I6" t="n">
+        <v>100</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.72</v>
+      </c>
+      <c r="P6" t="n">
+        <v>538.7550048828125</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>977.3740234375</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BaseModel</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BL_FBMC_NO_WEATHER</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SmoothL1Loss</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H7" t="n">
+        <v>256</v>
+      </c>
+      <c r="I7" t="n">
+        <v>100</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="P7" t="n">
+        <v>514.447021484375</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>944.905029296875</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BaseModel</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BL_FBMC_GNLD</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>SmoothL1Loss</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H8" t="n">
+        <v>256</v>
+      </c>
+      <c r="I8" t="n">
+        <v>100</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.72</v>
+      </c>
+      <c r="P8" t="n">
+        <v>525.7949829101562</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>986.5759887695312</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>BaseModel</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BL_FBMC_CTRY</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SmoothL1Loss</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H9" t="n">
+        <v>256</v>
+      </c>
+      <c r="I9" t="n">
+        <v>100</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="P9" t="n">
+        <v>497.3940124511719</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>966.1959838867188</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BaseModel</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BL_FBMC_FULL</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SmoothL1Loss</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H10" t="n">
+        <v>256</v>
+      </c>
+      <c r="I10" t="n">
+        <v>100</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-0.78</v>
+      </c>
+      <c r="P10" t="n">
+        <v>496.635009765625</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>936.1610107421875</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Net</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BL_FBMC</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SmoothL1Loss</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H11" t="n">
+        <v>256</v>
+      </c>
+      <c r="I11" t="n">
+        <v>100</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="P11" t="n">
+        <v>558.9929809570312</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>995.93798828125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Net</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BL_FBMC_TIME</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SmoothL1Loss</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H12" t="n">
+        <v>256</v>
+      </c>
+      <c r="I12" t="n">
+        <v>100</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0.87</v>
+      </c>
+      <c r="P12" t="n">
+        <v>563.1409912109375</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>963.3909912109375</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Net</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BL_FBMC_NO_WEATHER</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SmoothL1Loss</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H13" t="n">
+        <v>256</v>
+      </c>
+      <c r="I13" t="n">
+        <v>100</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="P13" t="n">
+        <v>547.9409790039062</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>931.135009765625</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BaseModel</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BL_FBMC</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SmoothL1Loss</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H14" t="n">
+        <v>256</v>
+      </c>
+      <c r="I14" t="n">
+        <v>100</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="P14" t="n">
+        <v>526.1929931640625</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>973.9039916992188</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>BaseModel</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BL_FBMC</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SmoothL1Loss</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H15" t="n">
+        <v>256</v>
+      </c>
+      <c r="I15" t="n">
+        <v>100</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="P15" t="n">
+        <v>526.1929931640625</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>973.9039916992188</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BaseModel</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>BL_FBMC_TIME</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>SmoothL1Loss</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H16" t="n">
+        <v>256</v>
+      </c>
+      <c r="I16" t="n">
+        <v>100</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-0.72</v>
+      </c>
+      <c r="P16" t="n">
+        <v>538.7550048828125</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>977.3740234375</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BaseModel</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>BL_FBMC_GNLD</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>SmoothL1Loss</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H17" t="n">
+        <v>256</v>
+      </c>
+      <c r="I17" t="n">
+        <v>100</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-0.72</v>
+      </c>
+      <c r="P17" t="n">
+        <v>525.7949829101562</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>986.5759887695312</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BaseModel</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BL_FBMC_CTRY</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>SmoothL1Loss</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H18" t="n">
+        <v>256</v>
+      </c>
+      <c r="I18" t="n">
+        <v>100</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="P18" t="n">
+        <v>497.3940124511719</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>966.1959838867188</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>BaseModel</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>BL_FBMC_FULL</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>SmoothL1Loss</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H19" t="n">
+        <v>256</v>
+      </c>
+      <c r="I19" t="n">
+        <v>100</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-0.78</v>
+      </c>
+      <c r="P19" t="n">
+        <v>496.635009765625</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>936.1610107421875</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Net</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BL_FBMC</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>SmoothL1Loss</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H20" t="n">
+        <v>256</v>
+      </c>
+      <c r="I20" t="n">
+        <v>100</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="O20" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="P20" t="n">
+        <v>558.9929809570312</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>995.93798828125</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Net</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>BL_FBMC_TIME</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>SmoothL1Loss</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H21" t="n">
+        <v>256</v>
+      </c>
+      <c r="I21" t="n">
+        <v>100</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="O21" t="n">
+        <v>-0.87</v>
+      </c>
+      <c r="P21" t="n">
+        <v>563.1409912109375</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>963.3909912109375</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Net</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>BL_FBMC_GNLD</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>SmoothL1Loss</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H22" t="n">
+        <v>256</v>
+      </c>
+      <c r="I22" t="n">
+        <v>100</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-0.85</v>
+      </c>
+      <c r="P22" t="n">
+        <v>562.8460083007812</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>948.0770263671875</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Net</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>BL_FBMC_CTRY</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>SmoothL1Loss</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H23" t="n">
+        <v>256</v>
+      </c>
+      <c r="I23" t="n">
+        <v>100</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="P23" t="n">
+        <v>578.8350219726562</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>982.3660278320312</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Net</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>BL_FBMC_FULL</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SmoothL1Loss</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H24" t="n">
+        <v>256</v>
+      </c>
+      <c r="I24" t="n">
+        <v>100</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="P24" t="n">
+        <v>578.4940185546875</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1039.68798828125</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>BaseModel</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>BL_FBMC</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>L1Loss</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H25" t="n">
+        <v>256</v>
+      </c>
+      <c r="I25" t="n">
+        <v>100</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="O25" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="P25" t="n">
+        <v>518.114013671875</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>986.0020141601562</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>BaseModel</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>BL_FBMC_TIME</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>L1Loss</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H26" t="n">
+        <v>256</v>
+      </c>
+      <c r="I26" t="n">
+        <v>100</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-0.78</v>
+      </c>
+      <c r="P26" t="n">
+        <v>542.0020141601562</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>991.9609985351562</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BaseModel</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>BL_FBMC_GNLD</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>L1Loss</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H27" t="n">
+        <v>256</v>
+      </c>
+      <c r="I27" t="n">
+        <v>100</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="P27" t="n">
+        <v>513.208984375</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1006.369995117188</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>BaseModel</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>BL_FBMC_CTRY</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>L1Loss</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H28" t="n">
+        <v>256</v>
+      </c>
+      <c r="I28" t="n">
+        <v>100</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O28" t="n">
+        <v>-0.84</v>
+      </c>
+      <c r="P28" t="n">
+        <v>510.5840148925781</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1006.669006347656</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>BaseModel</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>BL_FBMC_FULL</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>L1Loss</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H29" t="n">
+        <v>256</v>
+      </c>
+      <c r="I29" t="n">
+        <v>100</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="P29" t="n">
+        <v>495.22900390625</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>953.60400390625</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Net</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>BL_FBMC</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>L1Loss</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H30" t="n">
+        <v>256</v>
+      </c>
+      <c r="I30" t="n">
+        <v>100</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="O30" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="P30" t="n">
+        <v>551.1160278320312</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>927.1710205078125</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Net</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>BL_FBMC_TIME</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>L1Loss</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H31" t="n">
+        <v>256</v>
+      </c>
+      <c r="I31" t="n">
+        <v>100</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P31" t="n">
+        <v>550.2059936523438</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1003.254028320312</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Net</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>BL_FBMC_GNLD</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>L1Loss</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H32" t="n">
+        <v>256</v>
+      </c>
+      <c r="I32" t="n">
+        <v>100</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O32" t="n">
+        <v>-0.88</v>
+      </c>
+      <c r="P32" t="n">
+        <v>560.4000244140625</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>950.0780029296875</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Net</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>BL_FBMC_CTRY</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>L1Loss</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H33" t="n">
+        <v>256</v>
+      </c>
+      <c r="I33" t="n">
+        <v>100</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="P33" t="n">
+        <v>565.2420043945312</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>973.6710205078125</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Net</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>BL_FBMC_FULL</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>L1Loss</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H34" t="n">
+        <v>256</v>
+      </c>
+      <c r="I34" t="n">
+        <v>100</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="P34" t="n">
+        <v>568.1939697265625</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>925.7839965820312</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>BaseModel</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>BL_FBMC</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>MSELoss</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H35" t="n">
+        <v>256</v>
+      </c>
+      <c r="I35" t="n">
+        <v>100</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-0.72</v>
+      </c>
+      <c r="P35" t="n">
+        <v>512.4190063476562</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>954.3770141601562</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>BaseModel</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>BL_FBMC_TIME</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>MSELoss</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H36" t="n">
+        <v>256</v>
+      </c>
+      <c r="I36" t="n">
+        <v>100</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="P36" t="n">
+        <v>512.9769897460938</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>975.6060180664062</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>BaseModel</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BL_FBMC_GNLD</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>MSELoss</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H37" t="n">
+        <v>256</v>
+      </c>
+      <c r="I37" t="n">
+        <v>100</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-0.68</v>
+      </c>
+      <c r="P37" t="n">
+        <v>531.25</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>975.5349731445312</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>BaseModel</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>BL_FBMC_CTRY</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>MSELoss</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H38" t="n">
+        <v>256</v>
+      </c>
+      <c r="I38" t="n">
+        <v>100</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O38" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="P38" t="n">
+        <v>498.3800048828125</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>952.0369873046875</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>BaseModel</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>BL_FBMC_FULL</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>MSELoss</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H39" t="n">
+        <v>256</v>
+      </c>
+      <c r="I39" t="n">
+        <v>100</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="P39" t="n">
+        <v>497.4500122070312</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>922.2100219726562</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Net</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>BL_FBMC</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>MSELoss</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H40" t="n">
+        <v>256</v>
+      </c>
+      <c r="I40" t="n">
+        <v>100</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-0.82</v>
+      </c>
+      <c r="P40" t="n">
+        <v>547.2999877929688</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>952.989990234375</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Net</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>BL_FBMC_TIME</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>MSELoss</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H41" t="n">
+        <v>256</v>
+      </c>
+      <c r="I41" t="n">
+        <v>100</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="O41" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="P41" t="n">
+        <v>547.3569946289062</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>961.1090087890625</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Net</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>BL_FBMC_GNLD</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>MSELoss</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H42" t="n">
+        <v>256</v>
+      </c>
+      <c r="I42" t="n">
+        <v>100</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L42" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="O42" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="P42" t="n">
+        <v>552.2589721679688</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>969.343994140625</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Net</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>BL_FBMC_CTRY</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>MSELoss</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H43" t="n">
+        <v>256</v>
+      </c>
+      <c r="I43" t="n">
+        <v>100</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="L43" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="O43" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="P43" t="n">
+        <v>554.864990234375</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>947.8800048828125</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Net</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>BL_FBMC_FULL</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>MSELoss</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H44" t="n">
+        <v>256</v>
+      </c>
+      <c r="I44" t="n">
+        <v>100</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-0.84</v>
+      </c>
+      <c r="P44" t="n">
+        <v>557.8510131835938</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>943.8079833984375</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>BL_FBMC_FULL</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>SmoothL1Loss</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H45" t="n">
+        <v>256</v>
+      </c>
+      <c r="I45" t="n">
+        <v>100</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="P45" t="n">
+        <v>801.5170288085938</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>930.8380126953125</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>BL_FBMC_FULL</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>L1Loss</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H46" t="n">
+        <v>256</v>
+      </c>
+      <c r="I46" t="n">
+        <v>100</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-0.61</v>
+      </c>
+      <c r="P46" t="n">
+        <v>734.6129760742188</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>877.4509887695312</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>BL_FBMC_FULL</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>MSELoss</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H47" t="n">
+        <v>256</v>
+      </c>
+      <c r="I47" t="n">
+        <v>100</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L47" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="O47" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="P47" t="n">
+        <v>712.5139770507812</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>923.7919921875</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>BL_FBMC_FULL</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>SmoothL1Loss</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H48" t="n">
+        <v>256</v>
+      </c>
+      <c r="I48" t="n">
+        <v>100</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="P48" t="n">
+        <v>571.4879760742188</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>889.0830078125</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>BL_FBMC_FULL</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>L1Loss</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H49" t="n">
+        <v>256</v>
+      </c>
+      <c r="I49" t="n">
+        <v>100</v>
+      </c>
+      <c r="J49" t="n">
         <v>0.54</v>
       </c>
-      <c r="I3" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-0.34</v>
-      </c>
-      <c r="L3" t="n">
-        <v>562.4219970703125</v>
-      </c>
-      <c r="M3" t="n">
-        <v>903.3319702148438</v>
+      <c r="K49" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="O49" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="P49" t="n">
+        <v>549.864990234375</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>899.0659790039062</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>BL_FBMC_FULL</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>MSELoss</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H50" t="n">
+        <v>256</v>
+      </c>
+      <c r="I50" t="n">
+        <v>100</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="P50" t="n">
+        <v>506.9660034179688</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>845.822998046875</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>BL_FBMC_FULL</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>SmoothL1Loss</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H51" t="n">
+        <v>256</v>
+      </c>
+      <c r="I51" t="n">
+        <v>100</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="P51" t="n">
+        <v>556.906982421875</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>893.2379760742188</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>BL_FBMC_FULL</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>L1Loss</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H52" t="n">
+        <v>256</v>
+      </c>
+      <c r="I52" t="n">
+        <v>100</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="P52" t="n">
+        <v>533.114990234375</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>903.7540283203125</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>BL_FBMC_FULL</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>MSELoss</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H53" t="n">
+        <v>256</v>
+      </c>
+      <c r="I53" t="n">
+        <v>100</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O53" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="P53" t="n">
+        <v>502.8150024414062</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>867.0159912109375</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>BaseModel</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>BL_FBMC</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>MSELoss</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H54" t="n">
+        <v>256</v>
+      </c>
+      <c r="I54" t="n">
+        <v>100</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="P54" t="n">
+        <v>513.2919921875</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>902.0770263671875</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>BaseModel</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>BL_FBMC_TIME</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>MSELoss</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H55" t="n">
+        <v>256</v>
+      </c>
+      <c r="I55" t="n">
+        <v>100</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="P55" t="n">
+        <v>513.2919921875</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>902.0770263671875</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>BaseModel</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>BL_FBMC_CTRY</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>MSELoss</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H56" t="n">
+        <v>256</v>
+      </c>
+      <c r="I56" t="n">
+        <v>100</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="P56" t="n">
+        <v>513.2919921875</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>902.0770263671875</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>BaseModel</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>BL_FBMC_GNLD</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>MSELoss</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H57" t="n">
+        <v>256</v>
+      </c>
+      <c r="I57" t="n">
+        <v>100</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="P57" t="n">
+        <v>513.2919921875</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>902.0770263671875</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>BaseModel</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>BL_FBMC_FULL</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>MSELoss</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.000300</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0.001000</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H58" t="n">
+        <v>256</v>
+      </c>
+      <c r="I58" t="n">
+        <v>100</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O58" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="P58" t="n">
+        <v>513.2919921875</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>902.0770263671875</v>
       </c>
     </row>
   </sheetData>

--- a/src/results/model_metrics/00_summary.xlsx
+++ b/src/results/model_metrics/00_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3840,15 +3840,11 @@
           <t>MSELoss</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.000300</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>0.001000</t>
-        </is>
+      <c r="D58" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.001</v>
       </c>
       <c r="F58" t="n">
         <v>0.9</v>
@@ -3885,6 +3881,305 @@
       </c>
       <c r="Q58" t="n">
         <v>902.0770263671875</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>BL_NTC_FULL</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>L1Loss</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H59" t="n">
+        <v>256</v>
+      </c>
+      <c r="I59" t="n">
+        <v>100</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O59" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="P59" t="n">
+        <v>181.2879943847656</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>294.6300048828125</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>BL_NTC_FULL</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>L1Loss</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H60" t="n">
+        <v>256</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="P60" t="n">
+        <v>279.6940002441406</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>326.8399963378906</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>BL_NTC_FULL</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>L1Loss</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H61" t="n">
+        <v>256</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="O61" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="P61" t="n">
+        <v>279.6940002441406</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>326.8399963378906</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>BL_NTC_FULL</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>L1Loss</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H62" t="n">
+        <v>256</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="O62" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="P62" t="n">
+        <v>279.5920104980469</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>326.1499938964844</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>BL_FBMC_FULL</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>MSELoss</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.000300</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0.001000</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H63" t="n">
+        <v>256</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="L63" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="P63" t="n">
+        <v>282.0150146484375</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>313.8999938964844</v>
       </c>
     </row>
   </sheetData>

--- a/src/results/model_metrics/00_summary.xlsx
+++ b/src/results/model_metrics/00_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4135,15 +4135,11 @@
           <t>MSELoss</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.000300</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>0.001000</t>
-        </is>
+      <c r="D63" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.001</v>
       </c>
       <c r="F63" t="n">
         <v>0.9</v>
@@ -4180,6 +4176,1544 @@
       </c>
       <c r="Q63" t="n">
         <v>313.8999938964844</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>BL_FBMC_FULL</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>MSELoss</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H64" t="n">
+        <v>256</v>
+      </c>
+      <c r="I64" t="n">
+        <v>50</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="O64" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="P64" t="n">
+        <v>507.614990234375</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>876.7059936523438</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>BL_FBMC_FULL</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>HuberLoss</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H65" t="n">
+        <v>256</v>
+      </c>
+      <c r="I65" t="n">
+        <v>50</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="P65" t="n">
+        <v>800.1090087890625</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>933.77001953125</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>BaseModel</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>AGG_FBMC</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>MSELoss</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H66" t="n">
+        <v>512</v>
+      </c>
+      <c r="I66" t="n">
+        <v>50</v>
+      </c>
+      <c r="J66" t="n">
+        <v>3847.09</v>
+      </c>
+      <c r="K66" t="n">
+        <v>3847.09</v>
+      </c>
+      <c r="L66" t="n">
+        <v>9525.709999999999</v>
+      </c>
+      <c r="M66" t="n">
+        <v>9525.709999999999</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-3844.19</v>
+      </c>
+      <c r="O66" t="n">
+        <v>-16061.26</v>
+      </c>
+      <c r="P66" t="n">
+        <v>48614.7578125</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>72373.3671875</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>BaseModel</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>AGG_FBMC</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>MSELoss</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H67" t="n">
+        <v>512</v>
+      </c>
+      <c r="I67" t="n">
+        <v>100</v>
+      </c>
+      <c r="J67" t="n">
+        <v>156.68</v>
+      </c>
+      <c r="K67" t="n">
+        <v>156.68</v>
+      </c>
+      <c r="L67" t="n">
+        <v>931.05</v>
+      </c>
+      <c r="M67" t="n">
+        <v>931.05</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-155.59</v>
+      </c>
+      <c r="O67" t="n">
+        <v>-1230.47</v>
+      </c>
+      <c r="P67" t="n">
+        <v>9747.150390625</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>23016.02734375</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>BaseModel</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>AGG_FBMC</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>MSELoss</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H68" t="n">
+        <v>2048</v>
+      </c>
+      <c r="I68" t="n">
+        <v>250</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="O68" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="P68" t="n">
+        <v>591.89599609375</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>945.2420043945312</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>BaseModel</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>AGG_FBMC</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>L1Loss</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2048</v>
+      </c>
+      <c r="I69" t="n">
+        <v>250</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O69" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="P69" t="n">
+        <v>585.447021484375</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>955.52099609375</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>BaseModel</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>AGG_FBMC</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>HuberLoss</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2048</v>
+      </c>
+      <c r="I70" t="n">
+        <v>250</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O70" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="P70" t="n">
+        <v>587.2490234375</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>951.0020141601562</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>AGG_FBMC</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>MSELoss</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H71" t="n">
+        <v>512</v>
+      </c>
+      <c r="I71" t="n">
+        <v>100</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="O71" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="P71" t="n">
+        <v>603.156982421875</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>901.1370239257812</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>AGG_FBMC</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>MSELoss</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H72" t="n">
+        <v>512</v>
+      </c>
+      <c r="I72" t="n">
+        <v>100</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="O72" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="P72" t="n">
+        <v>647.0289916992188</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>896.5469970703125</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>AGG_FBMC</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>MSELoss</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H73" t="n">
+        <v>512</v>
+      </c>
+      <c r="I73" t="n">
+        <v>100</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="O73" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="P73" t="n">
+        <v>648.2139892578125</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>744.458984375</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>AGG_FBMC</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>MSELoss</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H74" t="n">
+        <v>512</v>
+      </c>
+      <c r="I74" t="n">
+        <v>100</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="O74" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="P74" t="n">
+        <v>672.4299926757812</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>766.2020263671875</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>AGG_FBMC</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>SmoothL1Loss</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H75" t="n">
+        <v>64</v>
+      </c>
+      <c r="I75" t="n">
+        <v>50</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O75" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="P75" t="n">
+        <v>810.02197265625</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>874.7849731445312</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>AGG_FBMC</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>MSELoss</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H76" t="n">
+        <v>64</v>
+      </c>
+      <c r="I76" t="n">
+        <v>50</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O76" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="P76" t="n">
+        <v>545.5029907226562</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>801.0709838867188</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>AGG_FBMC</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>SmoothL1Loss</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H77" t="n">
+        <v>64</v>
+      </c>
+      <c r="I77" t="n">
+        <v>50</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O77" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="P77" t="n">
+        <v>606.0850219726562</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>786.083984375</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>AGG_FBMC</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>SmoothL1Loss</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H78" t="n">
+        <v>64</v>
+      </c>
+      <c r="I78" t="n">
+        <v>50</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="O78" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="P78" t="n">
+        <v>631.3740234375</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>776.9719848632812</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>AGG_FBMC</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>SmoothL1Loss</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H79" t="n">
+        <v>64</v>
+      </c>
+      <c r="I79" t="n">
+        <v>50</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="O79" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="P79" t="n">
+        <v>626.635009765625</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>775.2570190429688</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>BL_FBMC_FULL</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>SmoothL1Loss</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H80" t="n">
+        <v>64</v>
+      </c>
+      <c r="I80" t="n">
+        <v>50</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O80" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="P80" t="n">
+        <v>631.3070068359375</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>775.31298828125</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>AGG_FBMC</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>SmoothL1Loss</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H81" t="n">
+        <v>64</v>
+      </c>
+      <c r="I81" t="n">
+        <v>50</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="O81" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="P81" t="n">
+        <v>631.3740234375</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>776.9719848632812</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>BL_FBMC_FULL</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>SmoothL1Loss</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H82" t="n">
+        <v>64</v>
+      </c>
+      <c r="I82" t="n">
+        <v>50</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O82" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="P82" t="n">
+        <v>631.3070068359375</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>775.31298828125</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>BL_FBMC_FULL</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>SmoothL1Loss</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H83" t="n">
+        <v>64</v>
+      </c>
+      <c r="I83" t="n">
+        <v>50</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="O83" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="P83" t="n">
+        <v>665.0880126953125</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>797.197998046875</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>AGG_FBMC</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>SmoothL1Loss</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H84" t="n">
+        <v>64</v>
+      </c>
+      <c r="I84" t="n">
+        <v>50</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="O84" t="n">
+        <v>-0.64</v>
+      </c>
+      <c r="P84" t="n">
+        <v>736.5150146484375</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>876.177001953125</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>BL_FBMC_FULL</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>SmoothL1Loss</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H85" t="n">
+        <v>64</v>
+      </c>
+      <c r="I85" t="n">
+        <v>50</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="O85" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="P85" t="n">
+        <v>665.0880126953125</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>797.197998046875</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>BL_FBMC_FULL</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>SmoothL1Loss</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H86" t="n">
+        <v>64</v>
+      </c>
+      <c r="I86" t="n">
+        <v>50</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O86" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="P86" t="n">
+        <v>631.3070068359375</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>775.31298828125</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>BL_FBMC_FULL</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>SmoothL1Loss</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H87" t="n">
+        <v>64</v>
+      </c>
+      <c r="I87" t="n">
+        <v>50</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="O87" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="P87" t="n">
+        <v>665.0880126953125</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>797.197998046875</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>AGG_FBMC</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>SmoothL1Loss</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H88" t="n">
+        <v>64</v>
+      </c>
+      <c r="I88" t="n">
+        <v>50</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="O88" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="P88" t="n">
+        <v>629.4030151367188</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>788.552001953125</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Net</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>BL_FBMC_FULL</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>MSELoss</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.000300</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>0.003000</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H89" t="n">
+        <v>64</v>
+      </c>
+      <c r="I89" t="n">
+        <v>50</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="O89" t="n">
+        <v>-0.85</v>
+      </c>
+      <c r="P89" t="n">
+        <v>759.2529907226562</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>897.77001953125</v>
       </c>
     </row>
   </sheetData>
